--- a/zoo/OUT.xlsx
+++ b/zoo/OUT.xlsx
@@ -11,7 +11,7 @@
     <sheet name="КФО" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ДФО, УФО, СФО и др'!$I$6:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ДФО, УФО, СФО и др'!$I$6:$I$119</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -1241,31 +1241,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2156,7 +2156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2167,7 +2167,7 @@
   <dimension ref="A1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4066,7 +4066,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I6:I23"/>
+  <autoFilter ref="I6:I119"/>
   <mergeCells count="1">
     <mergeCell ref="A5:F5"/>
   </mergeCells>
@@ -4405,14 +4405,14 @@
     </row>
     <row r="4" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:44" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
     </row>
     <row r="6" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
@@ -4645,12 +4645,12 @@
       <c r="B24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -4695,12 +4695,12 @@
       <c r="B28" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="91"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -4721,12 +4721,12 @@
       <c r="B30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -5071,12 +5071,12 @@
       <c r="B59" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="90" t="s">
+      <c r="C59" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="91"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="90"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -5121,12 +5121,12 @@
       <c r="B63" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="90" t="s">
+      <c r="C63" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="91"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="90"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -5255,12 +5255,12 @@
       <c r="B74" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="90" t="s">
+      <c r="C74" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="91"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="90"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
@@ -5317,12 +5317,12 @@
       <c r="B79" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="88"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="89"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="92"/>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
@@ -5331,12 +5331,12 @@
       <c r="B80" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="88" t="s">
+      <c r="C80" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="89"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="92"/>
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
@@ -5345,12 +5345,12 @@
       <c r="B81" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="88" t="s">
+      <c r="C81" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="89"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="92"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
@@ -5359,12 +5359,12 @@
       <c r="B82" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="D82" s="88"/>
-      <c r="E82" s="88"/>
-      <c r="F82" s="89"/>
+      <c r="D82" s="91"/>
+      <c r="E82" s="91"/>
+      <c r="F82" s="92"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
@@ -5373,12 +5373,12 @@
       <c r="B83" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="89"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="92"/>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
@@ -5387,12 +5387,12 @@
       <c r="B84" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="88" t="s">
+      <c r="C84" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="89"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
+      <c r="F84" s="92"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
@@ -5401,12 +5401,12 @@
       <c r="B85" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="88" t="s">
+      <c r="C85" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="89"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="92"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
@@ -5415,12 +5415,12 @@
       <c r="B86" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="88" t="s">
+      <c r="C86" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="89"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
+      <c r="F86" s="92"/>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
@@ -5429,12 +5429,12 @@
       <c r="B87" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="88" t="s">
+      <c r="C87" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="D87" s="88"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="89"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
+      <c r="F87" s="92"/>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
@@ -5443,12 +5443,12 @@
       <c r="B88" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="88" t="s">
+      <c r="C88" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="89"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="92"/>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
@@ -5457,12 +5457,12 @@
       <c r="B89" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="88" t="s">
+      <c r="C89" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="88"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="89"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="92"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
@@ -5471,12 +5471,12 @@
       <c r="B90" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="88" t="s">
+      <c r="C90" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="89"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="91"/>
+      <c r="F90" s="92"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
@@ -5485,12 +5485,12 @@
       <c r="B91" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="88" t="s">
+      <c r="C91" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="89"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="92"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
@@ -5499,12 +5499,12 @@
       <c r="B92" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="88" t="s">
+      <c r="C92" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="89"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="92"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
@@ -5513,12 +5513,12 @@
       <c r="B93" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="88" t="s">
+      <c r="C93" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="88"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="89"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="92"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
@@ -5527,12 +5527,12 @@
       <c r="B94" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="88" t="s">
+      <c r="C94" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="89"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="92"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
@@ -5541,12 +5541,12 @@
       <c r="B95" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="88" t="s">
+      <c r="C95" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
-      <c r="F95" s="89"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="92"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
@@ -5555,12 +5555,12 @@
       <c r="B96" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="88" t="s">
+      <c r="C96" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="89"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="92"/>
     </row>
     <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
@@ -5569,12 +5569,12 @@
       <c r="B97" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="86" t="s">
+      <c r="C97" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="86"/>
-      <c r="E97" s="86"/>
-      <c r="F97" s="87"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="94"/>
     </row>
     <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="49">
@@ -5844,32 +5844,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C91:F91"/>
     <mergeCell ref="C97:F97"/>
     <mergeCell ref="C92:F92"/>
     <mergeCell ref="C93:F93"/>
     <mergeCell ref="C94:F94"/>
     <mergeCell ref="C95:F95"/>
     <mergeCell ref="C96:F96"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C59:F59"/>
   </mergeCells>
   <conditionalFormatting sqref="C24 C28 C30 C59 C7:F23 C25:F27 C29:F29 C31:F58 C60:F62 C64:F73 C75:F78">
     <cfRule type="containsText" dxfId="16" priority="68" operator="containsText" text="0">

--- a/zoo/OUT.xlsx
+++ b/zoo/OUT.xlsx
@@ -10,9 +10,6 @@
     <sheet name="ДФО, УФО, СФО и др" sheetId="1" r:id="rId1"/>
     <sheet name="КФО" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ДФО, УФО, СФО и др'!$I$6:$I$119</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="137">
   <si>
     <t>Android</t>
   </si>
@@ -440,19 +437,13 @@
   </si>
   <si>
     <t>Daily VPN - Secure VPN Proxy</t>
-  </si>
-  <si>
-    <t>Проверяющий регион</t>
-  </si>
-  <si>
-    <t>02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,15 +526,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -996,7 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,9 +1206,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2164,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP119"/>
+  <dimension ref="A1:AO119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,10 +2154,9 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2210,8 +2188,8 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
       <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="12"/>
       <c r="AD1" s="12"/>
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
@@ -2224,9 +2202,8 @@
       <c r="AM1" s="12"/>
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2272,9 +2249,8 @@
       <c r="AM2" s="12"/>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D3" s="7" t="s">
         <v>83</v>
       </c>
@@ -2282,20 +2258,20 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83" t="s">
+    <row r="5" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
-    </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+    </row>
+    <row r="6" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
@@ -2314,11 +2290,8 @@
       <c r="F6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2329,11 +2302,8 @@
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
-      <c r="I7" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -2344,11 +2314,8 @@
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
-      <c r="I8" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -2359,11 +2326,8 @@
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
-      <c r="I9" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -2374,11 +2338,8 @@
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
-      <c r="I10" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -2389,11 +2350,8 @@
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
-      <c r="I11" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2404,11 +2362,8 @@
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="I12" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -2419,11 +2374,8 @@
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="I13" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -2434,11 +2386,8 @@
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="I14" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2449,11 +2398,8 @@
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="I15" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -2464,11 +2410,8 @@
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
-      <c r="I16" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -2479,11 +2422,8 @@
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="I17" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -2494,11 +2434,8 @@
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="I18" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -2509,11 +2446,8 @@
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55"/>
-      <c r="I19" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -2524,11 +2458,8 @@
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55"/>
-      <c r="I20" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -2539,11 +2470,8 @@
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
-      <c r="I21" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -2554,11 +2482,8 @@
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55"/>
-      <c r="I22" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -2569,28 +2494,22 @@
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="I23" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>18</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="I24" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>19</v>
       </c>
@@ -2601,11 +2520,8 @@
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
-      <c r="I25" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -2616,11 +2532,8 @@
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55"/>
-      <c r="I26" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>21</v>
       </c>
@@ -2631,28 +2544,22 @@
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="I27" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>22</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="I28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>23</v>
       </c>
@@ -2663,28 +2570,22 @@
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="4"/>
-      <c r="I29" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>24</v>
       </c>
       <c r="B30" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-      <c r="I30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>25</v>
       </c>
@@ -2695,11 +2596,8 @@
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="I31" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>26</v>
       </c>
@@ -2710,11 +2608,8 @@
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
-      <c r="I32" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>27</v>
       </c>
@@ -2725,11 +2620,8 @@
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55"/>
-      <c r="I33" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>28</v>
       </c>
@@ -2740,11 +2632,8 @@
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="I34" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>29</v>
       </c>
@@ -2755,11 +2644,8 @@
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
-      <c r="I35" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -2770,11 +2656,8 @@
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55"/>
-      <c r="I36" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -2785,11 +2668,8 @@
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55"/>
-      <c r="I37" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>32</v>
       </c>
@@ -2800,11 +2680,8 @@
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
-      <c r="I38" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>33</v>
       </c>
@@ -2815,11 +2692,8 @@
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55"/>
-      <c r="I39" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>34</v>
       </c>
@@ -2830,11 +2704,8 @@
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
-      <c r="I40" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>35</v>
       </c>
@@ -2845,11 +2716,8 @@
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
       <c r="F41" s="55"/>
-      <c r="I41" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>36</v>
       </c>
@@ -2860,11 +2728,8 @@
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
-      <c r="I42" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>37</v>
       </c>
@@ -2875,11 +2740,8 @@
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
-      <c r="I43" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>38</v>
       </c>
@@ -2890,11 +2752,8 @@
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
-      <c r="I44" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>39</v>
       </c>
@@ -2905,11 +2764,8 @@
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
-      <c r="I45" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>40</v>
       </c>
@@ -2920,11 +2776,8 @@
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
       <c r="F46" s="55"/>
-      <c r="I46" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>41</v>
       </c>
@@ -2935,11 +2788,8 @@
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
       <c r="F47" s="55"/>
-      <c r="I47" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>42</v>
       </c>
@@ -2950,11 +2800,8 @@
       <c r="D48" s="55"/>
       <c r="E48" s="55"/>
       <c r="F48" s="55"/>
-      <c r="I48" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>43</v>
       </c>
@@ -2965,11 +2812,8 @@
       <c r="D49" s="55"/>
       <c r="E49" s="55"/>
       <c r="F49" s="55"/>
-      <c r="I49" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>44</v>
       </c>
@@ -2980,11 +2824,8 @@
       <c r="D50" s="55"/>
       <c r="E50" s="55"/>
       <c r="F50" s="55"/>
-      <c r="I50" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45</v>
       </c>
@@ -2995,11 +2836,8 @@
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
       <c r="F51" s="55"/>
-      <c r="I51" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>46</v>
       </c>
@@ -3010,11 +2848,8 @@
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
       <c r="F52" s="55"/>
-      <c r="I52" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>47</v>
       </c>
@@ -3025,11 +2860,8 @@
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="F53" s="55"/>
-      <c r="I53" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>48</v>
       </c>
@@ -3040,11 +2872,8 @@
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55"/>
-      <c r="I54" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>49</v>
       </c>
@@ -3055,11 +2884,8 @@
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="55"/>
-      <c r="I55" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>50</v>
       </c>
@@ -3070,11 +2896,8 @@
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
       <c r="F56" s="55"/>
-      <c r="I56" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>51</v>
       </c>
@@ -3085,11 +2908,8 @@
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
       <c r="F57" s="55"/>
-      <c r="I57" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>52</v>
       </c>
@@ -3100,28 +2920,22 @@
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
       <c r="F58" s="55"/>
-      <c r="I58" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>53</v>
       </c>
       <c r="B59" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="82"/>
-      <c r="I59" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="81"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>54</v>
       </c>
@@ -3132,11 +2946,8 @@
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
       <c r="F60" s="55"/>
-      <c r="I60" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>55</v>
       </c>
@@ -3147,11 +2958,8 @@
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="55"/>
-      <c r="I61" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>56</v>
       </c>
@@ -3162,28 +2970,22 @@
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="F62" s="55"/>
-      <c r="I62" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>57</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="82"/>
-      <c r="I63" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>58</v>
       </c>
@@ -3194,11 +2996,8 @@
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="F64" s="55"/>
-      <c r="I64" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>59</v>
       </c>
@@ -3209,11 +3008,8 @@
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="55"/>
-      <c r="I65" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>60</v>
       </c>
@@ -3224,11 +3020,8 @@
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
       <c r="F66" s="55"/>
-      <c r="I66" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>61</v>
       </c>
@@ -3239,11 +3032,8 @@
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="55"/>
-      <c r="I67" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>62</v>
       </c>
@@ -3254,11 +3044,8 @@
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
       <c r="F68" s="55"/>
-      <c r="I68" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>63</v>
       </c>
@@ -3269,11 +3056,8 @@
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
-      <c r="I69" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>64</v>
       </c>
@@ -3284,11 +3068,8 @@
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
       <c r="F70" s="55"/>
-      <c r="I70" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>65</v>
       </c>
@@ -3299,11 +3080,8 @@
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
       <c r="F71" s="55"/>
-      <c r="I71" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>66</v>
       </c>
@@ -3314,11 +3092,8 @@
       <c r="D72" s="55"/>
       <c r="E72" s="55"/>
       <c r="F72" s="55"/>
-      <c r="I72" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>67</v>
       </c>
@@ -3329,28 +3104,22 @@
       <c r="D73" s="55"/>
       <c r="E73" s="55"/>
       <c r="F73" s="55"/>
-      <c r="I73" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>68</v>
       </c>
       <c r="B74" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="82"/>
-      <c r="I74" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="81"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>69</v>
       </c>
@@ -3361,11 +3130,8 @@
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
       <c r="F75" s="55"/>
-      <c r="I75" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>70</v>
       </c>
@@ -3376,11 +3142,8 @@
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
       <c r="F76" s="55"/>
-      <c r="I76" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>71</v>
       </c>
@@ -3391,11 +3154,8 @@
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="F77" s="55"/>
-      <c r="I77" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>72</v>
       </c>
@@ -3406,334 +3166,274 @@
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
       <c r="F78" s="55"/>
-      <c r="I78" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>73</v>
       </c>
       <c r="B79" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="80" t="s">
+      <c r="C79" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="81"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="82"/>
-      <c r="I79" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="81"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>74</v>
       </c>
       <c r="B80" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="80" t="s">
+      <c r="C80" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="81"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="82"/>
-      <c r="I80" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="81"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>75</v>
       </c>
       <c r="B81" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D81" s="81"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="82"/>
-      <c r="I81" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="81"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>76</v>
       </c>
       <c r="B82" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="80" t="s">
+      <c r="C82" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="D82" s="81"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="82"/>
-      <c r="I82" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="81"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>77</v>
       </c>
       <c r="B83" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="82"/>
-      <c r="I83" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="81"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>78</v>
       </c>
       <c r="B84" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="81"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="82"/>
-      <c r="I84" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="81"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>79</v>
       </c>
       <c r="B85" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="80" t="s">
+      <c r="C85" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="81"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="82"/>
-      <c r="I85" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="81"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>80</v>
       </c>
       <c r="B86" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="80" t="s">
+      <c r="C86" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="82"/>
-      <c r="I86" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="81"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>81</v>
       </c>
       <c r="B87" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="82"/>
-      <c r="I87" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="81"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>82</v>
       </c>
       <c r="B88" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="80" t="s">
+      <c r="C88" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="81"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="82"/>
-      <c r="I88" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="81"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>83</v>
       </c>
       <c r="B89" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="81"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="82"/>
-      <c r="I89" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="81"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>84</v>
       </c>
       <c r="B90" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="80" t="s">
+      <c r="C90" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="81"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="82"/>
-      <c r="I90" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="81"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>85</v>
       </c>
       <c r="B91" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="80" t="s">
+      <c r="C91" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="81"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="82"/>
-      <c r="I91" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="81"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>86</v>
       </c>
       <c r="B92" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="80" t="s">
+      <c r="C92" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="81"/>
-      <c r="E92" s="81"/>
-      <c r="F92" s="82"/>
-      <c r="I92" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D92" s="80"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="81"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>87</v>
       </c>
       <c r="B93" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="80" t="s">
+      <c r="C93" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="81"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="82"/>
-      <c r="I93" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="81"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>88</v>
       </c>
       <c r="B94" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="80" t="s">
+      <c r="C94" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="81"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="82"/>
-      <c r="I94" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D94" s="80"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="81"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>89</v>
       </c>
       <c r="B95" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="81"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="82"/>
-      <c r="I95" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="81"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>90</v>
       </c>
       <c r="B96" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="80" t="s">
+      <c r="C96" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="81"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="82"/>
-      <c r="I96" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D96" s="80"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="81"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>91</v>
       </c>
       <c r="B97" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="80" t="s">
+      <c r="C97" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="81"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="82"/>
-      <c r="I97" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="81"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="49">
         <v>92</v>
       </c>
@@ -3744,11 +3444,8 @@
       <c r="D98" s="55"/>
       <c r="E98" s="55"/>
       <c r="F98" s="55"/>
-      <c r="I98" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="49">
         <v>93</v>
       </c>
@@ -3759,11 +3456,8 @@
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
       <c r="F99" s="55"/>
-      <c r="I99" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="49">
         <v>94</v>
       </c>
@@ -3774,11 +3468,8 @@
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
       <c r="F100" s="55"/>
-      <c r="I100" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="49">
         <v>95</v>
       </c>
@@ -3789,11 +3480,8 @@
       <c r="D101" s="55"/>
       <c r="E101" s="55"/>
       <c r="F101" s="55"/>
-      <c r="I101" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="49">
         <v>96</v>
       </c>
@@ -3804,11 +3492,8 @@
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
       <c r="F102" s="55"/>
-      <c r="I102" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="49">
         <v>97</v>
       </c>
@@ -3819,11 +3504,8 @@
       <c r="D103" s="55"/>
       <c r="E103" s="55"/>
       <c r="F103" s="55"/>
-      <c r="I103" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="49">
         <v>98</v>
       </c>
@@ -3834,11 +3516,8 @@
       <c r="D104" s="55"/>
       <c r="E104" s="55"/>
       <c r="F104" s="55"/>
-      <c r="I104" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="49">
         <v>99</v>
       </c>
@@ -3849,11 +3528,8 @@
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
       <c r="F105" s="55"/>
-      <c r="I105" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="49">
         <v>100</v>
       </c>
@@ -3864,11 +3540,8 @@
       <c r="D106" s="55"/>
       <c r="E106" s="55"/>
       <c r="F106" s="55"/>
-      <c r="I106" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="49">
         <v>101</v>
       </c>
@@ -3879,11 +3552,8 @@
       <c r="D107" s="55"/>
       <c r="E107" s="55"/>
       <c r="F107" s="55"/>
-      <c r="I107" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="49">
         <v>102</v>
       </c>
@@ -3894,11 +3564,8 @@
       <c r="D108" s="55"/>
       <c r="E108" s="55"/>
       <c r="F108" s="55"/>
-      <c r="I108" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="49">
         <v>103</v>
       </c>
@@ -3909,11 +3576,8 @@
       <c r="D109" s="55"/>
       <c r="E109" s="55"/>
       <c r="F109" s="55"/>
-      <c r="I109" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="49">
         <v>104</v>
       </c>
@@ -3924,11 +3588,8 @@
       <c r="D110" s="55"/>
       <c r="E110" s="55"/>
       <c r="F110" s="55"/>
-      <c r="I110" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="49">
         <v>105</v>
       </c>
@@ -3939,11 +3600,8 @@
       <c r="D111" s="55"/>
       <c r="E111" s="55"/>
       <c r="F111" s="55"/>
-      <c r="I111" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="62">
         <v>106</v>
       </c>
@@ -3954,11 +3612,8 @@
       <c r="D112" s="55"/>
       <c r="E112" s="55"/>
       <c r="F112" s="55"/>
-      <c r="I112" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="68">
         <v>107</v>
       </c>
@@ -3969,11 +3624,8 @@
       <c r="D113" s="55"/>
       <c r="E113" s="55"/>
       <c r="F113" s="55"/>
-      <c r="I113" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="74">
         <v>108</v>
       </c>
@@ -3986,11 +3638,8 @@
       <c r="D114" s="77"/>
       <c r="E114" s="77"/>
       <c r="F114" s="78"/>
-      <c r="I114" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="51">
         <v>109</v>
       </c>
@@ -4001,11 +3650,8 @@
       <c r="D115" s="55"/>
       <c r="E115" s="55"/>
       <c r="F115" s="55"/>
-      <c r="I115" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="51">
         <v>110</v>
       </c>
@@ -4016,11 +3662,8 @@
       <c r="D116" s="55"/>
       <c r="E116" s="55"/>
       <c r="F116" s="55"/>
-      <c r="I116" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="51">
         <v>111</v>
       </c>
@@ -4031,11 +3674,8 @@
       <c r="D117" s="55"/>
       <c r="E117" s="55"/>
       <c r="F117" s="55"/>
-      <c r="I117" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="51">
         <v>112</v>
       </c>
@@ -4046,11 +3686,8 @@
       <c r="D118" s="55"/>
       <c r="E118" s="55"/>
       <c r="F118" s="55"/>
-      <c r="I118" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="52">
         <v>113</v>
       </c>
@@ -4061,12 +3698,8 @@
       <c r="D119" s="55"/>
       <c r="E119" s="55"/>
       <c r="F119" s="55"/>
-      <c r="I119" s="1">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="I6:I119"/>
   <mergeCells count="1">
     <mergeCell ref="A5:F5"/>
   </mergeCells>
@@ -4277,9 +3910,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I12:I16 I102 I113" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4405,14 +4035,14 @@
     </row>
     <row r="4" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:44" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="6" spans="1:44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
@@ -4645,12 +4275,12 @@
       <c r="B24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -4695,12 +4325,12 @@
       <c r="B28" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -4721,12 +4351,12 @@
       <c r="B30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -5071,12 +4701,12 @@
       <c r="B59" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="89" t="s">
+      <c r="C59" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="90"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="89"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -5121,12 +4751,12 @@
       <c r="B63" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="89" t="s">
+      <c r="C63" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="90"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="89"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -5255,12 +4885,12 @@
       <c r="B74" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="89" t="s">
+      <c r="C74" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="90"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="89"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
@@ -5317,12 +4947,12 @@
       <c r="B79" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="91" t="s">
+      <c r="C79" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="92"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="91"/>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
@@ -5331,12 +4961,12 @@
       <c r="B80" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="91" t="s">
+      <c r="C80" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="92"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="91"/>
     </row>
     <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
@@ -5345,12 +4975,12 @@
       <c r="B81" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D81" s="91"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="92"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="91"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
@@ -5359,12 +4989,12 @@
       <c r="B82" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="91" t="s">
+      <c r="C82" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="92"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="91"/>
     </row>
     <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
@@ -5373,12 +5003,12 @@
       <c r="B83" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="92"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="91"/>
     </row>
     <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
@@ -5387,12 +5017,12 @@
       <c r="B84" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="91" t="s">
+      <c r="C84" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="92"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="91"/>
     </row>
     <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
@@ -5401,12 +5031,12 @@
       <c r="B85" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="91" t="s">
+      <c r="C85" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="92"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="91"/>
     </row>
     <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
@@ -5415,12 +5045,12 @@
       <c r="B86" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="92"/>
+      <c r="D86" s="90"/>
+      <c r="E86" s="90"/>
+      <c r="F86" s="91"/>
     </row>
     <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
@@ -5429,12 +5059,12 @@
       <c r="B87" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C87" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="92"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="91"/>
     </row>
     <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
@@ -5443,12 +5073,12 @@
       <c r="B88" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="91" t="s">
+      <c r="C88" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="92"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="91"/>
     </row>
     <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
@@ -5457,12 +5087,12 @@
       <c r="B89" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="91" t="s">
+      <c r="C89" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="92"/>
+      <c r="D89" s="90"/>
+      <c r="E89" s="90"/>
+      <c r="F89" s="91"/>
     </row>
     <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
@@ -5471,12 +5101,12 @@
       <c r="B90" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="91" t="s">
+      <c r="C90" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="91"/>
-      <c r="E90" s="91"/>
-      <c r="F90" s="92"/>
+      <c r="D90" s="90"/>
+      <c r="E90" s="90"/>
+      <c r="F90" s="91"/>
     </row>
     <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
@@ -5485,12 +5115,12 @@
       <c r="B91" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="91" t="s">
+      <c r="C91" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="92"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="91"/>
     </row>
     <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
@@ -5499,12 +5129,12 @@
       <c r="B92" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="91" t="s">
+      <c r="C92" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="91"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="92"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="90"/>
+      <c r="F92" s="91"/>
     </row>
     <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
@@ -5513,12 +5143,12 @@
       <c r="B93" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="91" t="s">
+      <c r="C93" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="91"/>
-      <c r="E93" s="91"/>
-      <c r="F93" s="92"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="91"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
@@ -5527,12 +5157,12 @@
       <c r="B94" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C94" s="91" t="s">
+      <c r="C94" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="91"/>
-      <c r="E94" s="91"/>
-      <c r="F94" s="92"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="91"/>
     </row>
     <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
@@ -5541,12 +5171,12 @@
       <c r="B95" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="91"/>
-      <c r="E95" s="91"/>
-      <c r="F95" s="92"/>
+      <c r="D95" s="90"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="91"/>
     </row>
     <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
@@ -5555,12 +5185,12 @@
       <c r="B96" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="91" t="s">
+      <c r="C96" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="92"/>
+      <c r="D96" s="90"/>
+      <c r="E96" s="90"/>
+      <c r="F96" s="91"/>
     </row>
     <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
@@ -5569,12 +5199,12 @@
       <c r="B97" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="93" t="s">
+      <c r="C97" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="93"/>
-      <c r="E97" s="93"/>
-      <c r="F97" s="94"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="93"/>
     </row>
     <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="49">

--- a/zoo/OUT.xlsx
+++ b/zoo/OUT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="164">
   <si>
     <t>ресурс не доступен</t>
   </si>
@@ -505,13 +505,19 @@
   </si>
   <si>
     <t>Проверка ресурса производится по дополнительному указанию</t>
+  </si>
+  <si>
+    <t>Проверяющий регион</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +604,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -813,7 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,6 +948,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3879,7 +3897,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3887,9 +3905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3897,7 +3917,7 @@
     <col min="3" max="6" width="20.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3909,7 +3929,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3921,17 +3941,17 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="35"/>
       <c r="D3" s="36"/>
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
@@ -3941,7 +3961,7 @@
       <c r="E5" s="41"/>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
@@ -3960,8 +3980,11 @@
       <c r="F6" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -3972,8 +3995,11 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -3984,8 +4010,11 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -3996,8 +4025,11 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -4008,8 +4040,11 @@
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -4020,8 +4055,11 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>6</v>
       </c>
@@ -4034,8 +4072,11 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>7</v>
       </c>
@@ -4048,8 +4089,11 @@
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -4060,8 +4104,11 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>9</v>
       </c>
@@ -4074,8 +4121,11 @@
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -4086,8 +4136,11 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -4098,8 +4151,11 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>12</v>
       </c>
@@ -4110,8 +4166,11 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>13</v>
       </c>
@@ -4122,8 +4181,11 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>14</v>
       </c>
@@ -4134,8 +4196,11 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -4146,8 +4211,11 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>16</v>
       </c>
@@ -4160,8 +4228,11 @@
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>17</v>
       </c>
@@ -4174,8 +4245,11 @@
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>18</v>
       </c>
@@ -4188,8 +4262,11 @@
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>19</v>
       </c>
@@ -4202,8 +4279,11 @@
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>20</v>
       </c>
@@ -4214,8 +4294,11 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>21</v>
       </c>
@@ -4226,8 +4309,11 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>22</v>
       </c>
@@ -4240,8 +4326,11 @@
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="39"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>23</v>
       </c>
@@ -4254,8 +4343,11 @@
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>24</v>
       </c>
@@ -4268,8 +4360,11 @@
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
       <c r="F30" s="39"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>25</v>
       </c>
@@ -4280,8 +4375,11 @@
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -4292,8 +4390,11 @@
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>27</v>
       </c>
@@ -4306,8 +4407,11 @@
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>28</v>
       </c>
@@ -4320,8 +4424,11 @@
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>29</v>
       </c>
@@ -4332,8 +4439,11 @@
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>30</v>
       </c>
@@ -4344,8 +4454,11 @@
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>31</v>
       </c>
@@ -4358,8 +4471,11 @@
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="33"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>32</v>
       </c>
@@ -4372,8 +4488,11 @@
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>33</v>
       </c>
@@ -4384,8 +4503,11 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>34</v>
       </c>
@@ -4396,8 +4518,11 @@
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>35</v>
       </c>
@@ -4408,8 +4533,11 @@
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>36</v>
       </c>
@@ -4422,8 +4550,11 @@
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>37</v>
       </c>
@@ -4434,8 +4565,11 @@
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>38</v>
       </c>
@@ -4448,8 +4582,11 @@
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>39</v>
       </c>
@@ -4460,8 +4597,11 @@
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>40</v>
       </c>
@@ -4472,8 +4612,11 @@
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>41</v>
       </c>
@@ -4486,8 +4629,11 @@
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>42</v>
       </c>
@@ -4498,8 +4644,11 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>43</v>
       </c>
@@ -4512,8 +4661,11 @@
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="33"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>44</v>
       </c>
@@ -4524,8 +4676,11 @@
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>45</v>
       </c>
@@ -4538,8 +4693,11 @@
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>46</v>
       </c>
@@ -4552,8 +4710,11 @@
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>47</v>
       </c>
@@ -4564,8 +4725,11 @@
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>48</v>
       </c>
@@ -4576,8 +4740,11 @@
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>49</v>
       </c>
@@ -4590,8 +4757,11 @@
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
       <c r="F55" s="39"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>50</v>
       </c>
@@ -4604,8 +4774,11 @@
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>51</v>
       </c>
@@ -4616,8 +4789,11 @@
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>52</v>
       </c>
@@ -4628,8 +4804,11 @@
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>53</v>
       </c>
@@ -4642,8 +4821,11 @@
       <c r="D59" s="38"/>
       <c r="E59" s="38"/>
       <c r="F59" s="39"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>54</v>
       </c>
@@ -4654,8 +4836,11 @@
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>55</v>
       </c>
@@ -4666,8 +4851,11 @@
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>56</v>
       </c>
@@ -4678,8 +4866,11 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>57</v>
       </c>
@@ -4692,8 +4883,11 @@
       <c r="D63" s="38"/>
       <c r="E63" s="38"/>
       <c r="F63" s="39"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>58</v>
       </c>
@@ -4706,8 +4900,11 @@
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>59</v>
       </c>
@@ -4718,8 +4915,11 @@
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>60</v>
       </c>
@@ -4730,8 +4930,11 @@
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>61</v>
       </c>
@@ -4742,8 +4945,11 @@
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>62</v>
       </c>
@@ -4756,8 +4962,11 @@
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
       <c r="F68" s="39"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>63</v>
       </c>
@@ -4768,8 +4977,11 @@
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>64</v>
       </c>
@@ -4780,8 +4992,11 @@
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>65</v>
       </c>
@@ -4792,8 +5007,11 @@
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>66</v>
       </c>
@@ -4804,8 +5022,11 @@
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>67</v>
       </c>
@@ -4816,8 +5037,11 @@
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>68</v>
       </c>
@@ -4830,8 +5054,11 @@
       <c r="D74" s="38"/>
       <c r="E74" s="38"/>
       <c r="F74" s="39"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>69</v>
       </c>
@@ -4842,8 +5069,11 @@
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>70</v>
       </c>
@@ -4854,8 +5084,11 @@
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>71</v>
       </c>
@@ -4868,8 +5101,11 @@
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>72</v>
       </c>
@@ -4880,8 +5116,11 @@
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>73</v>
       </c>
@@ -4894,8 +5133,11 @@
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
       <c r="F79" s="39"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>74</v>
       </c>
@@ -4908,8 +5150,11 @@
       <c r="D80" s="38"/>
       <c r="E80" s="38"/>
       <c r="F80" s="39"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>75</v>
       </c>
@@ -4922,8 +5167,11 @@
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
       <c r="F81" s="39"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>76</v>
       </c>
@@ -4936,8 +5184,11 @@
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
       <c r="F82" s="39"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>77</v>
       </c>
@@ -4950,8 +5201,11 @@
       <c r="D83" s="38"/>
       <c r="E83" s="38"/>
       <c r="F83" s="39"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>78</v>
       </c>
@@ -4964,8 +5218,11 @@
       <c r="D84" s="38"/>
       <c r="E84" s="38"/>
       <c r="F84" s="39"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>79</v>
       </c>
@@ -4978,8 +5235,11 @@
       <c r="D85" s="38"/>
       <c r="E85" s="38"/>
       <c r="F85" s="39"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>80</v>
       </c>
@@ -4992,8 +5252,11 @@
       <c r="D86" s="38"/>
       <c r="E86" s="38"/>
       <c r="F86" s="39"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>81</v>
       </c>
@@ -5006,8 +5269,11 @@
       <c r="D87" s="38"/>
       <c r="E87" s="38"/>
       <c r="F87" s="39"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>82</v>
       </c>
@@ -5020,8 +5286,11 @@
       <c r="D88" s="38"/>
       <c r="E88" s="38"/>
       <c r="F88" s="39"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>83</v>
       </c>
@@ -5034,8 +5303,11 @@
       <c r="D89" s="38"/>
       <c r="E89" s="38"/>
       <c r="F89" s="39"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>84</v>
       </c>
@@ -5048,8 +5320,11 @@
       <c r="D90" s="38"/>
       <c r="E90" s="38"/>
       <c r="F90" s="39"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>85</v>
       </c>
@@ -5062,8 +5337,11 @@
       <c r="D91" s="38"/>
       <c r="E91" s="38"/>
       <c r="F91" s="39"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>86</v>
       </c>
@@ -5076,8 +5354,11 @@
       <c r="D92" s="38"/>
       <c r="E92" s="38"/>
       <c r="F92" s="39"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>87</v>
       </c>
@@ -5090,8 +5371,11 @@
       <c r="D93" s="38"/>
       <c r="E93" s="38"/>
       <c r="F93" s="39"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>88</v>
       </c>
@@ -5104,8 +5388,11 @@
       <c r="D94" s="38"/>
       <c r="E94" s="38"/>
       <c r="F94" s="39"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>89</v>
       </c>
@@ -5118,8 +5405,11 @@
       <c r="D95" s="38"/>
       <c r="E95" s="38"/>
       <c r="F95" s="39"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>90</v>
       </c>
@@ -5132,8 +5422,11 @@
       <c r="D96" s="38"/>
       <c r="E96" s="38"/>
       <c r="F96" s="39"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>91</v>
       </c>
@@ -5146,8 +5439,11 @@
       <c r="D97" s="38"/>
       <c r="E97" s="38"/>
       <c r="F97" s="39"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>92</v>
       </c>
@@ -5158,8 +5454,11 @@
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>93</v>
       </c>
@@ -5172,8 +5471,11 @@
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>94</v>
       </c>
@@ -5184,8 +5486,11 @@
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>95</v>
       </c>
@@ -5198,8 +5503,11 @@
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>96</v>
       </c>
@@ -5210,8 +5518,11 @@
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>97</v>
       </c>
@@ -5222,8 +5533,11 @@
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
-    </row>
-    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>98</v>
       </c>
@@ -5236,8 +5550,11 @@
       </c>
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
-    </row>
-    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>99</v>
       </c>
@@ -5248,8 +5565,11 @@
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
-    </row>
-    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>100</v>
       </c>
@@ -5262,8 +5582,11 @@
       </c>
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>101</v>
       </c>
@@ -5276,8 +5599,11 @@
       </c>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>102</v>
       </c>
@@ -5290,8 +5616,11 @@
       </c>
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>103</v>
       </c>
@@ -5302,8 +5631,11 @@
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
-    </row>
-    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>104</v>
       </c>
@@ -5314,8 +5646,11 @@
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>105</v>
       </c>
@@ -5326,8 +5661,11 @@
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>106</v>
       </c>
@@ -5340,8 +5678,11 @@
       </c>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
-    </row>
-    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>107</v>
       </c>
@@ -5352,8 +5693,11 @@
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>108</v>
       </c>
@@ -5366,8 +5710,11 @@
       <c r="D114" s="38"/>
       <c r="E114" s="38"/>
       <c r="F114" s="39"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>109</v>
       </c>
@@ -5378,8 +5725,11 @@
       <c r="D115" s="17"/>
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>110</v>
       </c>
@@ -5390,8 +5740,11 @@
       <c r="D116" s="17"/>
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
-    </row>
-    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>111</v>
       </c>
@@ -5402,8 +5755,11 @@
       <c r="D117" s="17"/>
       <c r="E117" s="17"/>
       <c r="F117" s="17"/>
-    </row>
-    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>112</v>
       </c>
@@ -5414,8 +5770,11 @@
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="17"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>113</v>
       </c>
@@ -5426,8 +5785,11 @@
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
-    </row>
-    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>114</v>
       </c>
@@ -5438,8 +5800,11 @@
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>115</v>
       </c>
@@ -5450,8 +5815,11 @@
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>116</v>
       </c>
@@ -5462,8 +5830,11 @@
       <c r="D122" s="17"/>
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
-    </row>
-    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>117</v>
       </c>
@@ -5474,8 +5845,11 @@
       <c r="D123" s="17"/>
       <c r="E123" s="17"/>
       <c r="F123" s="17"/>
-    </row>
-    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>118</v>
       </c>
@@ -5488,8 +5862,11 @@
       <c r="D124" s="38"/>
       <c r="E124" s="38"/>
       <c r="F124" s="39"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="13">
         <v>119</v>
       </c>
@@ -5502,8 +5879,11 @@
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
       <c r="F125" s="39"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>120</v>
       </c>
@@ -5514,8 +5894,11 @@
       <c r="D126" s="17"/>
       <c r="E126" s="17"/>
       <c r="F126" s="17"/>
-    </row>
-    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>121</v>
       </c>
@@ -5526,8 +5909,11 @@
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
-    </row>
-    <row r="128" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>122</v>
       </c>
@@ -5538,8 +5924,11 @@
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="17"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>123</v>
       </c>
@@ -5550,8 +5939,11 @@
       <c r="D129" s="17"/>
       <c r="E129" s="17"/>
       <c r="F129" s="17"/>
-    </row>
-    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>124</v>
       </c>
@@ -5562,8 +5954,11 @@
       <c r="D130" s="17"/>
       <c r="E130" s="17"/>
       <c r="F130" s="17"/>
-    </row>
-    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>125</v>
       </c>
@@ -5574,8 +5969,11 @@
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
-    </row>
-    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>126</v>
       </c>
@@ -5586,8 +5984,11 @@
       <c r="D132" s="17"/>
       <c r="E132" s="17"/>
       <c r="F132" s="17"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>127</v>
       </c>
@@ -5598,8 +5999,11 @@
       <c r="D133" s="17"/>
       <c r="E133" s="17"/>
       <c r="F133" s="17"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>128</v>
       </c>
@@ -5610,8 +6014,11 @@
       <c r="D134" s="17"/>
       <c r="E134" s="17"/>
       <c r="F134" s="17"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>129</v>
       </c>
@@ -5622,8 +6029,11 @@
       <c r="D135" s="17"/>
       <c r="E135" s="17"/>
       <c r="F135" s="17"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <v>130</v>
       </c>
@@ -5634,8 +6044,11 @@
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="F136" s="17"/>
-    </row>
-    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>131</v>
       </c>
@@ -5646,8 +6059,11 @@
       <c r="D137" s="17"/>
       <c r="E137" s="17"/>
       <c r="F137" s="17"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <v>132</v>
       </c>
@@ -5658,8 +6074,11 @@
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>133</v>
       </c>
@@ -5670,8 +6089,11 @@
       <c r="D139" s="17"/>
       <c r="E139" s="17"/>
       <c r="F139" s="17"/>
-    </row>
-    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>134</v>
       </c>
@@ -5682,8 +6104,11 @@
       <c r="D140" s="17"/>
       <c r="E140" s="17"/>
       <c r="F140" s="17"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>135</v>
       </c>
@@ -5694,8 +6119,11 @@
       <c r="D141" s="17"/>
       <c r="E141" s="17"/>
       <c r="F141" s="17"/>
-    </row>
-    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>136</v>
       </c>
@@ -5706,8 +6134,11 @@
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
-    </row>
-    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>137</v>
       </c>
@@ -5718,8 +6149,11 @@
       <c r="D143" s="17"/>
       <c r="E143" s="17"/>
       <c r="F143" s="17"/>
-    </row>
-    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>138</v>
       </c>
@@ -5732,8 +6166,11 @@
       <c r="D144" s="38"/>
       <c r="E144" s="38"/>
       <c r="F144" s="39"/>
-    </row>
-    <row r="145" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I144" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>139</v>
       </c>
@@ -5744,8 +6181,11 @@
       <c r="D145" s="17"/>
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
-    </row>
-    <row r="146" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>140</v>
       </c>
@@ -5756,8 +6196,11 @@
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
       <c r="F146" s="17"/>
-    </row>
-    <row r="147" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <v>141</v>
       </c>
@@ -5768,8 +6211,11 @@
       <c r="D147" s="17"/>
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
-    </row>
-    <row r="148" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <v>142</v>
       </c>
@@ -5780,8 +6226,11 @@
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
-    </row>
-    <row r="149" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <v>143</v>
       </c>
@@ -5792,8 +6241,11 @@
       <c r="D149" s="17"/>
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <v>144</v>
       </c>
@@ -5804,8 +6256,11 @@
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
       <c r="F150" s="17"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <v>145</v>
       </c>
@@ -5816,20 +6271,17 @@
       <c r="D151" s="17"/>
       <c r="E151" s="17"/>
       <c r="F151" s="17"/>
+      <c r="I151">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C87:F87"/>
     <mergeCell ref="C124:F124"/>
     <mergeCell ref="C125:F125"/>
     <mergeCell ref="C144:F144"/>
@@ -5846,11 +6298,17 @@
     <mergeCell ref="C88:F88"/>
     <mergeCell ref="C89:F89"/>
     <mergeCell ref="C79:F79"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C81:F81"/>
   </mergeCells>
   <conditionalFormatting sqref="C114 C68 C55 C49 C37 C24:F24 C7:F11 C14:F14 C16:F21 C26:F28 C30:F32 C35:F36 C39:F41 C43:F43 C45:F46 C48:F48 C50:F50 C53:F54 C57:F63 C65:F67 C69:F76 C78:F98 C100:F100 C102:F103 C105:F105 C109:F111 C113:F113 C115:F123 C126:F143">
     <cfRule type="containsText" dxfId="311" priority="524" operator="containsText" text="1">
